--- a/biology/Histoire de la zoologie et de la botanique/Bernhard_Paludanus/Bernhard_Paludanus.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Bernhard_Paludanus/Bernhard_Paludanus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bernhard (ou Bernardus) Paludanus, né Berend ten Broecke en 1550 et mort en 1633, est un médecin et collectionneur néerlandais.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il voyage plusieurs années en Europe, étudie la médecine à Padoue et s’installe en 1581 à Enkhuizen. Il est invité à créer le premier jardin botanique de l’université de Leyde mais Paludanus décline cette offre et c’est Charles de l'Écluse (1525-1609) qui fonde et dirige le jardin en 1592. Il vend sa première collection constituée d’objets récoltés durant ses voyages au duc Frédéric Ier de Wurtemberg (1557-1608) en 1603-1604. Quelques années plus tard, il commence à rassembler un deuxième cabinet de curiosités dont l’inventaire est publié par Paludanus. Sa collection, rassemblant des objets d’Asie et d’Amérique tant naturels que des artefacts, inspire notamment Ole Worm (1588-1654). Elle sera vendue après sa mort à Frédéric III de Holstein-Gottorp (1597-1659) pour son Kunstkammer de Copenhague.
 Il a voyagé à Londres en 1592, et en Allemagne au cours de l'année 1597, où il a notamment été l'hôte du duc Henri-Jules de Brunswick-Wolfenbüttel et du landgrave Maurice de Hesse-Cassel.
-Il est l'éditeur du journal de voyage de son ami Linschoten (1596), comme lui bourgeois d'Enkhuizen[1]. Tous deux faisaient d'ailleurs partie du cercle d'amis du cartographe et explorateur Waghenaer.
+Il est l'éditeur du journal de voyage de son ami Linschoten (1596), comme lui bourgeois d'Enkhuizen. Tous deux faisaient d'ailleurs partie du cercle d'amis du cartographe et explorateur Waghenaer.
 </t>
         </is>
       </c>
